--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>680040.3809121598</v>
+        <v>611606.4674639701</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554236</v>
+        <v>337002.2430554241</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8271080.068377357</v>
+        <v>8271080.068377355</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="3">
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.6003327477366</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>63.88882306452221</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>200.3360962888297</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>112.3289263072337</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>66.54387475011795</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>84.41978777916114</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>92.20434117555186</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>29.14270706479774</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>53.371319592716</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,10 +1387,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -1429,16 +1429,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>275.4243405465184</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T12" t="n">
         <v>196.8897623984489</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>63.6397626065168</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>203.663562840043</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>208.0055861732529</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I15" t="n">
         <v>61.42221998250818</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>77.72878559814581</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>134.1186324348726</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>265.1806127579634</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>25.31590541686258</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>325.2399460717371</v>
       </c>
       <c r="G20" t="n">
-        <v>280.1033070984077</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>118.253795872326</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>99.44950186996694</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>365.3419785295453</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>92.00803688215797</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>94.63926978364051</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>348.4327886484802</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -2617,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>360.4840829176712</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>104.3883541553073</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>234.8788897882641</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,19 +2848,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>315.8978222276242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2921,7 +2921,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T30" t="n">
         <v>196.8897623984489</v>
@@ -2952,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>70.80276983270103</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>63.01667685547826</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>362.2713967838214</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>154.0368281619953</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>208.342310594081</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,19 +3271,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>227.7573786476215</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>207.127892522009</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -3313,16 +3313,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>235.500096002687</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>190.2713935802968</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>244.7200466727679</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>89.2590608182072</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>10.46499054460276</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>36.39183767369501</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>206.6949325720446</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
-        <v>11.04753022753319</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3830,7 +3830,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933841</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>136.5310119231965</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>169.0167291702125</v>
+        <v>28.21611991813202</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>221.0021786982965</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3994,7 +3994,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>15.5863391041184</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>9.764863467406604</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>129.024624796403</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4375,7 +4375,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>899.5229907989976</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U3" t="n">
-        <v>487.2836868729568</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V3" t="n">
-        <v>487.2836868729568</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W3" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4524,16 +4524,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729609</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729609</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729609</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729609</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729609</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729609</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729609</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729609</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>122.2961490211352</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>302.3720006057941</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278686983</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759377</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185857</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="S5" t="n">
-        <v>601.5428246748836</v>
+        <v>761.6974622895966</v>
       </c>
       <c r="T5" t="n">
-        <v>376.1934816808115</v>
+        <v>761.6974622895966</v>
       </c>
       <c r="U5" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454964</v>
       </c>
       <c r="V5" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454964</v>
       </c>
       <c r="W5" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454964</v>
       </c>
       <c r="X5" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454964</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013963</v>
       </c>
     </row>
     <row r="6">
@@ -4622,31 +4622,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>862.8876260635219</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>292.6418663608746</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299845</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299845</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="K6" t="n">
         <v>144.6387031680501</v>
@@ -4655,43 +4655,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950738</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950738</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.0191193839564</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973073</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470258</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470258</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>668.6175021458965</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>668.6175021458965</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>460.8572033809426</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>46.59526811792571</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>85.78330631014789</v>
       </c>
       <c r="N7" t="n">
         <v>129.4741569655842</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625563</v>
       </c>
       <c r="C8" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625563</v>
       </c>
       <c r="D8" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625563</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625563</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184563</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4816,40 +4816,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271062</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066563</v>
       </c>
       <c r="T8" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066563</v>
       </c>
       <c r="U8" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066563</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066563</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>591.4512093066563</v>
       </c>
       <c r="X8" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625563</v>
       </c>
       <c r="Y8" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625563</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>521.2549444941228</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="C9" t="n">
-        <v>428.1192463369997</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="D9" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="E9" t="n">
-        <v>279.1848366757484</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="F9" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="G9" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299843</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>374.6018090363992</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950733</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950733</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>712.0191193839557</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>894.6625969973067</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>735.8335372470251</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>500.6814290152824</v>
       </c>
       <c r="W9" t="n">
-        <v>689.4702815141908</v>
+        <v>257.2326523711824</v>
       </c>
       <c r="X9" t="n">
-        <v>689.4702815141908</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>689.4702815141908</v>
+        <v>20.03527576299843</v>
       </c>
     </row>
     <row r="10">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1364.743608328862</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="C11" t="n">
-        <v>1310.833184497836</v>
+        <v>830.1724885289282</v>
       </c>
       <c r="D11" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E11" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5044,16 +5044,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5068,25 +5068,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S11" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2302.336936304455</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U11" t="n">
-        <v>2048.575150942547</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V11" t="n">
-        <v>1717.512263598976</v>
+        <v>1946.546234035934</v>
       </c>
       <c r="W11" t="n">
-        <v>1364.743608328862</v>
+        <v>1593.77757876582</v>
       </c>
       <c r="X11" t="n">
-        <v>1364.743608328862</v>
+        <v>1220.31182050474</v>
       </c>
       <c r="Y11" t="n">
-        <v>1364.743608328862</v>
+        <v>830.1724885289282</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
@@ -5126,19 +5126,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5147,16 +5147,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C13" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D13" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E13" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F13" t="n">
-        <v>412.3028537806172</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G13" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
         <v>53.94298182036445</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>991.2778500677821</v>
+        <v>1330.912423534854</v>
       </c>
       <c r="C14" t="n">
-        <v>622.3153331273704</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D14" t="n">
-        <v>264.0496345206199</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E14" t="n">
-        <v>264.0496345206199</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F14" t="n">
-        <v>264.0496345206199</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G14" t="n">
-        <v>264.0496345206199</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5278,13 +5278,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5317,13 +5317,13 @@
         <v>1717.512263598976</v>
       </c>
       <c r="W14" t="n">
-        <v>1364.743608328862</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X14" t="n">
-        <v>991.2778500677821</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y14" t="n">
-        <v>991.2778500677821</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="15">
@@ -5339,43 +5339,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648867</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>132.4569066669764</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>132.4569066669764</v>
       </c>
       <c r="H16" t="n">
         <v>53.94298182036445</v>
@@ -5469,19 +5469,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1780.41262192169</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C17" t="n">
-        <v>1780.41262192169</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D17" t="n">
-        <v>1422.14692331494</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E17" t="n">
         <v>1036.358670716696</v>
@@ -5515,13 +5515,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5542,25 +5542,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2506.647035452885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2506.647035452885</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2506.647035452885</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>2506.647035452885</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W17" t="n">
-        <v>2153.87838018277</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="X17" t="n">
-        <v>1780.41262192169</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="Y17" t="n">
-        <v>1780.41262192169</v>
+        <v>1394.624369323446</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
@@ -5618,7 +5618,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
         <v>2488.762748073963</v>
@@ -5633,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>546.4805193761947</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>377.5443364482878</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>227.4276970359521</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5679,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V19" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W19" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1491.915471247702</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="C20" t="n">
-        <v>1491.915471247702</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="D20" t="n">
-        <v>1133.649772640951</v>
+        <v>1127.626707938434</v>
       </c>
       <c r="E20" t="n">
-        <v>747.8615200427071</v>
+        <v>1127.626707938434</v>
       </c>
       <c r="F20" t="n">
-        <v>336.8756152530995</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548715</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.120401548715</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W20" t="n">
-        <v>2642.120401548715</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.654643287635</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y20" t="n">
-        <v>1878.515311311824</v>
+        <v>1485.892406545185</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5837,19 +5837,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598704</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5870,10 +5870,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2300.159739858537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2142.411367291068</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018222</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V22" t="n">
-        <v>2697.149091018222</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W22" t="n">
-        <v>2697.149091018222</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X22" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>2469.159540120205</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1546.944160717209</v>
+        <v>725.8268082199838</v>
       </c>
       <c r="C23" t="n">
-        <v>1546.944160717209</v>
+        <v>725.8268082199838</v>
       </c>
       <c r="D23" t="n">
-        <v>1546.944160717209</v>
+        <v>725.8268082199838</v>
       </c>
       <c r="E23" t="n">
-        <v>1161.155908118964</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F23" t="n">
-        <v>750.1700033293569</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757142</v>
+        <v>1112.426648284106</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.54400078133</v>
+        <v>1112.426648284106</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D25" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E25" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F25" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>945.5895825788796</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C26" t="n">
-        <v>945.5895825788796</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="D26" t="n">
-        <v>945.5895825788796</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="E26" t="n">
-        <v>945.5895825788796</v>
+        <v>886.5559895554136</v>
       </c>
       <c r="F26" t="n">
         <v>534.603677789272</v>
@@ -6229,10 +6229,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6265,13 +6265,13 @@
         <v>1662.48357412947</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859356</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X26" t="n">
-        <v>945.5895825788796</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y26" t="n">
-        <v>945.5895825788796</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
         <v>53.94298182036445</v>
@@ -6390,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>625.3202087220412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>625.3727659270879</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="C29" t="n">
-        <v>625.3727659270879</v>
+        <v>1568.629239003653</v>
       </c>
       <c r="D29" t="n">
-        <v>625.3727659270879</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="E29" t="n">
-        <v>625.3727659270879</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F29" t="n">
-        <v>625.3727659270879</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G29" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
         <v>207.4089578252748</v>
@@ -6496,19 +6496,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2057.295728843236</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W29" t="n">
-        <v>1704.527073573122</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X29" t="n">
-        <v>1331.061315312042</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y29" t="n">
-        <v>1011.97260599121</v>
+        <v>1937.591755944065</v>
       </c>
     </row>
     <row r="30">
@@ -6545,28 +6545,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
         <v>2488.762748073964</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C31" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
         <v>53.94298182036445</v>
@@ -6627,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>664.4757752615069</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>450.1873520796696</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064342</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1210.087414675782</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="C32" t="n">
-        <v>1210.087414675782</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.087414675782</v>
+        <v>991.3034697491298</v>
       </c>
       <c r="E32" t="n">
-        <v>1210.087414675782</v>
+        <v>991.3034697491298</v>
       </c>
       <c r="F32" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U32" t="n">
-        <v>2322.921668271098</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V32" t="n">
-        <v>2322.921668271098</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W32" t="n">
-        <v>1970.153013000984</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="X32" t="n">
-        <v>1596.687254739904</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y32" t="n">
-        <v>1596.687254739904</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="33">
@@ -6776,19 +6776,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6800,7 +6800,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
         <v>2646.935720430048</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>520.9088977430002</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C34" t="n">
-        <v>351.9727148150933</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D34" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064342</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="Y34" t="n">
-        <v>702.55736257324</v>
+        <v>517.6822058285749</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1133.624152959604</v>
+        <v>1529.645519427256</v>
       </c>
       <c r="C35" t="n">
-        <v>764.6616360191927</v>
+        <v>1160.683002486844</v>
       </c>
       <c r="D35" t="n">
-        <v>764.6616360191927</v>
+        <v>802.4173038800939</v>
       </c>
       <c r="E35" t="n">
-        <v>764.6616360191927</v>
+        <v>416.6290512818496</v>
       </c>
       <c r="F35" t="n">
-        <v>764.6616360191927</v>
+        <v>416.6290512818496</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>416.6290512818496</v>
       </c>
       <c r="H35" t="n">
         <v>207.4089578252748</v>
@@ -6937,19 +6937,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.752638628377</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V35" t="n">
-        <v>1893.689751284806</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W35" t="n">
-        <v>1893.689751284806</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X35" t="n">
-        <v>1520.223993023726</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="Y35" t="n">
-        <v>1520.223993023726</v>
+        <v>1916.245359491378</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424006</v>
@@ -7016,43 +7016,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C37" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D37" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>2469.840903686824</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="V37" t="n">
-        <v>2215.156415480938</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W37" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X37" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y37" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1130.084661047914</v>
+        <v>1494.154169929768</v>
       </c>
       <c r="C38" t="n">
-        <v>1130.084661047914</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D38" t="n">
-        <v>1130.084661047914</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E38" t="n">
-        <v>1130.084661047914</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F38" t="n">
-        <v>719.0987562583068</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G38" t="n">
-        <v>301.1349481564937</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7177,16 +7177,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7204,22 +7204,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990285</v>
+        <v>2606.988423525084</v>
       </c>
       <c r="U38" t="n">
-        <v>2224.752638628377</v>
+        <v>2606.988423525084</v>
       </c>
       <c r="V38" t="n">
-        <v>1893.689751284806</v>
+        <v>2606.988423525084</v>
       </c>
       <c r="W38" t="n">
-        <v>1893.689751284806</v>
+        <v>2254.219768254969</v>
       </c>
       <c r="X38" t="n">
-        <v>1520.223993023726</v>
+        <v>1880.75400999389</v>
       </c>
       <c r="Y38" t="n">
-        <v>1130.084661047914</v>
+        <v>1880.75400999389</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036423</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
         <v>2525.076107152626</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>509.7210873825632</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="C40" t="n">
-        <v>509.7210873825632</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="D40" t="n">
-        <v>359.6044479702274</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E40" t="n">
-        <v>211.6913543878343</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
         <v>53.94298182036445</v>
@@ -7338,46 +7338,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V40" t="n">
-        <v>691.3695522128029</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W40" t="n">
-        <v>691.3695522128029</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="X40" t="n">
-        <v>691.3695522128029</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="Y40" t="n">
-        <v>691.3695522128029</v>
+        <v>211.4036268380756</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1338.355738489329</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="C41" t="n">
-        <v>1338.355738489329</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="D41" t="n">
-        <v>1338.355738489329</v>
+        <v>1245.141430890478</v>
       </c>
       <c r="E41" t="n">
-        <v>952.5674858910851</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F41" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7429,34 +7429,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2630.961280106763</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2412.326613078826</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2412.326613078826</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V41" t="n">
-        <v>2081.263725735255</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W41" t="n">
-        <v>1728.495070465141</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X41" t="n">
-        <v>1728.495070465141</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y41" t="n">
-        <v>1338.355738489329</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
         <v>359.3385232961344</v>
@@ -7487,31 +7487,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
         <v>2646.935720430048</v>
@@ -7535,7 +7535,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S43" t="n">
-        <v>513.840561024597</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T43" t="n">
-        <v>343.1165921657965</v>
+        <v>551.4811944101821</v>
       </c>
       <c r="U43" t="n">
-        <v>53.94298182036446</v>
+        <v>551.4811944101821</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036446</v>
+        <v>551.4811944101821</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036446</v>
+        <v>551.4811944101821</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036446</v>
+        <v>551.4811944101821</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>551.4811944101821</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247703</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C44" t="n">
-        <v>1491.915471247703</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.68094731003</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
@@ -7669,7 +7669,7 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
@@ -7678,22 +7678,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2626.376624675869</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287636</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>1982.475507338148</v>
       </c>
     </row>
     <row r="45">
@@ -7724,10 +7724,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
         <v>309.190302261463</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2022.963088632153</v>
+        <v>63.80648027229032</v>
       </c>
       <c r="C46" t="n">
-        <v>2022.963088632153</v>
+        <v>63.80648027229032</v>
       </c>
       <c r="D46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>2407.975480672791</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>2153.290992466904</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W46" t="n">
-        <v>2022.963088632153</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X46" t="n">
-        <v>2022.963088632153</v>
+        <v>245.45494510253</v>
       </c>
       <c r="Y46" t="n">
-        <v>2022.963088632153</v>
+        <v>245.45494510253</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519926</v>
       </c>
       <c r="N6" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221036</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519922</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951776</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>251.4045252050812</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747075</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747122</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K30" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10919,7 +10919,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22555,16 +22555,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>169.6449844288198</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="3">
@@ -22637,19 +22637,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>21.46887964564732</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>36.26901108812093</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22764,7 +22764,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858214</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>8.68397329741569</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>139.0167266006028</v>
+        <v>10.33136403017733</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>145.2236497783944</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22919,19 +22919,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>185.1511084108017</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22944,7 +22944,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23029,13 +23029,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>330.8829497359739</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>188.9293852055442</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>80.50415781276388</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>176.6302781386797</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>311.9015721782915</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>52.32791792361655</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>103.6700396525341</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>96.2516047562942</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>161.6093289309646</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -23512,7 +23512,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>115.9171865911042</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23557,10 +23557,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>78.44210324364934</v>
       </c>
       <c r="I16" t="n">
         <v>134.9656217923382</v>
@@ -23709,19 +23709,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.29708037409893</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>84.06035595944962</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>141.9938968421883</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23946,13 +23946,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>81.63609966997433</v>
       </c>
       <c r="G20" t="n">
-        <v>133.6808629223873</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24022,22 +24022,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>16.7118259200123</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24183,16 +24183,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24214,19 +24214,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>282.4808682022949</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>48.44219149124967</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24369,25 +24369,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>64.16285195963718</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24420,13 +24420,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401875</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24451,10 +24451,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>58.44325709323124</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>9.24701776079786</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,10 +24621,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24657,19 +24657,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>119.8041518324188</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,19 +24736,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>70.34011642842938</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24840,28 +24840,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>96.50703242634988</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>83.64851512467956</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>44.60464895788999</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>97.18733934629404</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>78.18068774251003</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>193.2687479352325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25159,19 +25159,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>186.0267913731735</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>116.7948802423481</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25201,16 +25201,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25335,7 +25335,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>50.78177823929073</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>96.25160475629423</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>79.20272609158923</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>127.1892595394506</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>138.1504824736096</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>215.745805650133</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25633,19 +25633,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>175.2354375002172</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>163.3681825814383</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25809,7 +25809,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>56.01837628787177</v>
+        <v>196.8189855399523</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25870,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>133.6808629223865</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25918,10 +25918,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>200.8619812535394</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>138.8506095508058</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26079,16 +26079,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>157.498373540188</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465368.9729778747</v>
+        <v>465368.9729778745</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465368.9729778746</v>
+        <v>465368.9729778747</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131492</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131492</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131492</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131492</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>798427.8661131494</v>
+        <v>798427.8661131492</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>798427.8661131492</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.866113149</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>132928.5380250659</v>
       </c>
       <c r="C2" t="n">
-        <v>132928.5380250659</v>
+        <v>132928.538025066</v>
       </c>
       <c r="D2" t="n">
         <v>132928.5380250659</v>
@@ -26334,13 +26334,13 @@
         <v>231322.0880126061</v>
       </c>
       <c r="I2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.0880126062</v>
       </c>
       <c r="J2" t="n">
         <v>231322.0880126061</v>
       </c>
       <c r="K2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="L2" t="n">
         <v>231322.0880126061</v>
@@ -26355,7 +26355,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="P2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16914.68964098083</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
         <v>16914.68964098084</v>
@@ -26459,7 +26459,7 @@
         <v>18228.92756966326</v>
       </c>
       <c r="P4" t="n">
-        <v>18228.92756966327</v>
+        <v>18228.92756966326</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>48281.26876376168</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>48281.26876376166</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26490,7 +26490,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26499,7 +26499,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26508,10 +26508,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13036.85191122432</v>
+        <v>-25254.86253126476</v>
       </c>
       <c r="C6" t="n">
-        <v>67732.57962032343</v>
+        <v>55514.56900028299</v>
       </c>
       <c r="D6" t="n">
-        <v>67732.57962032341</v>
+        <v>55514.56900028294</v>
       </c>
       <c r="E6" t="n">
-        <v>-268984.4916634628</v>
+        <v>-275052.905409282</v>
       </c>
       <c r="F6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337141</v>
       </c>
       <c r="G6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337141</v>
       </c>
       <c r="H6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337141</v>
       </c>
       <c r="I6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337142</v>
       </c>
       <c r="J6" t="n">
-        <v>100801.7397804271</v>
+        <v>94733.32603460801</v>
       </c>
       <c r="K6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337141</v>
       </c>
       <c r="L6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337142</v>
       </c>
       <c r="M6" t="n">
-        <v>55888.32170547529</v>
+        <v>49819.90795965608</v>
       </c>
       <c r="N6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337141</v>
       </c>
       <c r="O6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337141</v>
       </c>
       <c r="P6" t="n">
-        <v>163861.6823795334</v>
+        <v>157793.2686337141</v>
       </c>
     </row>
   </sheetData>
@@ -26746,37 +26746,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="H3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="H3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170866</v>
@@ -26792,10 +26792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26807,10 +26807,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26819,7 +26819,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26828,10 +26828,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768965</v>
+        <v>433.2729838768966</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>433.2729838768966</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,22 +32645,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32937,46 +32937,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,22 +33119,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33654,19 +33654,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33681,13 +33681,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33754,22 +33754,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33830,16 +33830,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33891,19 +33891,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33918,13 +33918,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33991,22 +33991,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34067,16 +34067,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34128,19 +34128,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34155,13 +34155,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34228,22 +34228,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34304,16 +34304,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>99.8112771299743</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,13 +35260,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997385</v>
       </c>
       <c r="N9" t="n">
-        <v>99.8112771299739</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35737,7 +35737,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35974,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730626</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>289.2671274730077</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36922,16 +36922,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,13 +37159,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37633,13 +37633,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38031,13 +38031,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38110,7 +38110,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_2_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>611606.4674639701</v>
+        <v>672441.9423756703</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>337002.2430554241</v>
+        <v>337002.2430554239</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8271080.068377355</v>
+        <v>8271080.068377356</v>
       </c>
     </row>
     <row r="11">
@@ -661,73 +661,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>212.285385643442</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>63.88882306452221</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>89.98138655216532</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>200.3360962888297</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776592</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>66.54387475011795</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="7">
@@ -1056,55 +1056,55 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,11 +1144,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>62.4162677022923</v>
+      </c>
+      <c r="G8" t="n">
         <v>241.014288877659</v>
       </c>
-      <c r="G8" t="n">
-        <v>84.41978777916114</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -1177,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.014288877659</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>62.86349518004421</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>241.014288877659</v>
       </c>
       <c r="X9" t="n">
-        <v>29.14270706479774</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>90.3261289758146</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>275.4243405465184</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
         <v>196.8897623984489</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>148.3725158629811</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>203.663562840043</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>20.95486368043275</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>77.72878559814581</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>153.055538822593</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -1903,16 +1903,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>251.9962663290211</v>
       </c>
       <c r="W17" t="n">
-        <v>265.1806127579634</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>4.440065804380797</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>325.2399460717371</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>184.5808806410313</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>94.63926978364057</v>
+        <v>1.707323882823381</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,25 +2320,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>99.44950186996694</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>395.5814645127723</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>94.63926978364051</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>348.4327886484802</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>307.9895902233671</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2651,7 +2651,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
         <v>61.42221998250818</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>47.14167849255895</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,19 +2797,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>234.8788897882641</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>217.2380149098801</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>63.01667685547826</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>189.5968436493439</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>10.16516783205951</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>362.2713967838214</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -3085,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>208.342310594081</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>373.0222817561731</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>207.127892522009</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>151.9313162448613</v>
@@ -3319,7 +3319,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>235.500096002687</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>205.1478855987998</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>32.12716441244287</v>
       </c>
       <c r="T38" t="n">
-        <v>89.2590608182072</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3632,7 +3632,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T39" t="n">
         <v>196.8897623984489</v>
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>10.46499054460276</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,22 +3745,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>206.6949325720446</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>222.1083767283244</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -3799,16 +3799,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>77.390420905461</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>28.21611991813202</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>41.84104791661313</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>15.5863391041184</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>9.764863467406604</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>128.6652719985047</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C3" t="n">
         <v>19.28114311021272</v>
@@ -4421,10 +4421,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>899.5229907989976</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>497.8820279860555</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>262.7299197543128</v>
+        <v>644.9432478003937</v>
       </c>
       <c r="W3" t="n">
-        <v>19.28114311021272</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="4">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31.35113235729609</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C5" t="n">
-        <v>31.35113235729609</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729609</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729609</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211352</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057941</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686983</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759377</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185857</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>761.6974622895966</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T5" t="n">
-        <v>761.6974622895966</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U5" t="n">
-        <v>518.2486856454964</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V5" t="n">
-        <v>518.2486856454964</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W5" t="n">
-        <v>518.2486856454964</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X5" t="n">
-        <v>518.2486856454964</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.7999090013963</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>292.6418663608746</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>292.6418663608746</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>292.6418663608746</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299845</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299845</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950738</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950738</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>712.0191193839564</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470258</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>735.8335372470258</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>668.6175021458965</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>668.6175021458965</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
-        <v>460.8572033809426</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>46.59526811792571</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014789</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
         <v>129.4741569655842</v>
@@ -4752,25 +4752,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>348.0024326625563</v>
+        <v>325.7766548071332</v>
       </c>
       <c r="C8" t="n">
-        <v>348.0024326625563</v>
+        <v>325.7766548071332</v>
       </c>
       <c r="D8" t="n">
-        <v>348.0024326625563</v>
+        <v>325.7766548071332</v>
       </c>
       <c r="E8" t="n">
-        <v>348.0024326625563</v>
+        <v>325.7766548071332</v>
       </c>
       <c r="F8" t="n">
-        <v>104.5536560184563</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.057155510636</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424089</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271062</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066563</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="T8" t="n">
-        <v>591.4512093066563</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="U8" t="n">
-        <v>591.4512093066563</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="V8" t="n">
-        <v>591.4512093066563</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="W8" t="n">
-        <v>591.4512093066563</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="X8" t="n">
-        <v>348.0024326625563</v>
+        <v>812.6742080953333</v>
       </c>
       <c r="Y8" t="n">
-        <v>348.0024326625563</v>
+        <v>569.2254314512332</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299843</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4889,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363992</v>
+        <v>248.2447175439887</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950733</v>
+        <v>486.8488635328711</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950733</v>
+        <v>725.4530095217535</v>
       </c>
       <c r="O9" t="n">
-        <v>712.0191193839557</v>
+        <v>964.057155510636</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973067</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q9" t="n">
         <v>964.057155510636</v>
@@ -4925,10 +4925,10 @@
         <v>257.2326523711824</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>257.2326523711824</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299843</v>
+        <v>257.2326523711824</v>
       </c>
     </row>
     <row r="10">
@@ -4989,10 +4989,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
         <v>19.28114311021272</v>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>830.1724885289282</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="C11" t="n">
-        <v>830.1724885289282</v>
+        <v>1369.896143111251</v>
       </c>
       <c r="D11" t="n">
-        <v>471.9067899221776</v>
+        <v>1011.630444504501</v>
       </c>
       <c r="E11" t="n">
-        <v>471.9067899221776</v>
+        <v>625.8421919062564</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
         <v>881.2824271224076</v>
@@ -5071,22 +5071,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T11" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2224.752638628377</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V11" t="n">
-        <v>1946.546234035934</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W11" t="n">
-        <v>1593.77757876582</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X11" t="n">
-        <v>1220.31182050474</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y11" t="n">
-        <v>830.1724885289282</v>
+        <v>1738.858660051663</v>
       </c>
     </row>
     <row r="12">
@@ -5117,34 +5117,34 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
         <v>2488.762748073964</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5208,43 +5208,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T13" t="n">
-        <v>500.820796875036</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="U13" t="n">
-        <v>500.820796875036</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="V13" t="n">
-        <v>343.360151857325</v>
+        <v>500.8207968750359</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1330.912423534854</v>
+        <v>1738.389234072494</v>
       </c>
       <c r="C14" t="n">
-        <v>1125.191652989356</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="D14" t="n">
-        <v>766.9259543826058</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E14" t="n">
-        <v>381.1377017843616</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F14" t="n">
-        <v>381.1377017843616</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5305,25 +5305,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2302.336936304455</v>
+        <v>2675.982562048088</v>
       </c>
       <c r="U14" t="n">
-        <v>2048.575150942547</v>
+        <v>2422.220776686179</v>
       </c>
       <c r="V14" t="n">
-        <v>1717.512263598976</v>
+        <v>2091.157889342609</v>
       </c>
       <c r="W14" t="n">
-        <v>1717.512263598976</v>
+        <v>1738.389234072494</v>
       </c>
       <c r="X14" t="n">
-        <v>1717.512263598976</v>
+        <v>1738.389234072494</v>
       </c>
       <c r="Y14" t="n">
-        <v>1717.512263598976</v>
+        <v>1738.389234072494</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
         <v>129.2001442204943</v>
@@ -5396,10 +5396,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y15" t="n">
         <v>1156.713312237151</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>279.3468541648867</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C16" t="n">
-        <v>279.3468541648867</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D16" t="n">
-        <v>279.3468541648867</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E16" t="n">
-        <v>279.3468541648867</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F16" t="n">
-        <v>132.4569066669764</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G16" t="n">
-        <v>132.4569066669764</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5478,10 +5478,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>500.1394333084169</v>
+        <v>573.5274298401787</v>
       </c>
       <c r="Y16" t="n">
-        <v>279.3468541648867</v>
+        <v>573.5274298401787</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1394.624369323446</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="C17" t="n">
-        <v>1394.624369323446</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D17" t="n">
-        <v>1036.358670716696</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E17" t="n">
-        <v>1036.358670716696</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F17" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5542,25 +5542,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V17" t="n">
-        <v>1662.48357412947</v>
+        <v>1915.182265998242</v>
       </c>
       <c r="W17" t="n">
-        <v>1394.624369323446</v>
+        <v>1562.413610728128</v>
       </c>
       <c r="X17" t="n">
-        <v>1394.624369323446</v>
+        <v>1188.947852467049</v>
       </c>
       <c r="Y17" t="n">
-        <v>1394.624369323446</v>
+        <v>798.8085204912368</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I18" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5633,10 +5633,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G19" t="n">
         <v>53.94298182036445</v>
@@ -5679,46 +5679,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>723.6440692525144</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610022</v>
+        <v>723.6440692525144</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>723.6440692525144</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>723.6440692525144</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>723.6440692525144</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>723.6440692525144</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1485.892406545185</v>
+        <v>422.9054987607761</v>
       </c>
       <c r="C20" t="n">
-        <v>1485.892406545185</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D20" t="n">
-        <v>1127.626707938434</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E20" t="n">
-        <v>1127.626707938434</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5755,10 +5755,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2423.485734520778</v>
+        <v>2510.703757037383</v>
       </c>
       <c r="U20" t="n">
-        <v>2169.72394915887</v>
+        <v>2256.941971675474</v>
       </c>
       <c r="V20" t="n">
-        <v>1838.661061815299</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W20" t="n">
-        <v>1485.892406545185</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X20" t="n">
-        <v>1485.892406545185</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y20" t="n">
-        <v>1485.892406545185</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F22" t="n">
         <v>53.94298182036445</v>
@@ -5916,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064344</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U22" t="n">
-        <v>438.9553738610024</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V22" t="n">
-        <v>343.360151857325</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="23">
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>725.8268082199838</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C23" t="n">
-        <v>725.8268082199838</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D23" t="n">
-        <v>725.8268082199838</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="E23" t="n">
-        <v>625.3727659270879</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="F23" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733127</v>
@@ -6001,40 +6001,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>1485.892406545185</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X23" t="n">
-        <v>1112.426648284106</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y23" t="n">
-        <v>1112.426648284106</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="24">
@@ -6065,10 +6065,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
         <v>309.190302261463</v>
@@ -6089,7 +6089,7 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
         <v>2646.935720430048</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036446</v>
+        <v>217.9192350259435</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1272.344242153658</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C26" t="n">
-        <v>1272.344242153658</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D26" t="n">
-        <v>1272.344242153658</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
-        <v>886.5559895554136</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
@@ -6229,10 +6229,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>1662.48357412947</v>
+        <v>2386.048494833003</v>
       </c>
       <c r="X26" t="n">
-        <v>1662.48357412947</v>
+        <v>2386.048494833003</v>
       </c>
       <c r="Y26" t="n">
-        <v>1272.344242153658</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
@@ -6305,43 +6305,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
         <v>53.94298182036445</v>
@@ -6390,46 +6390,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1937.591755944065</v>
+        <v>1624.753525949915</v>
       </c>
       <c r="C29" t="n">
-        <v>1568.629239003653</v>
+        <v>1255.791009009504</v>
       </c>
       <c r="D29" t="n">
-        <v>1331.377835177124</v>
+        <v>1255.791009009504</v>
       </c>
       <c r="E29" t="n">
-        <v>945.5895825788796</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F29" t="n">
-        <v>534.603677789272</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G29" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H29" t="n">
         <v>207.4089578252748</v>
@@ -6496,19 +6496,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V29" t="n">
-        <v>2311.057514205145</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W29" t="n">
-        <v>2311.057514205145</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X29" t="n">
-        <v>1937.591755944065</v>
+        <v>2014.892857925727</v>
       </c>
       <c r="Y29" t="n">
-        <v>1937.591755944065</v>
+        <v>1624.753525949915</v>
       </c>
     </row>
     <row r="30">
@@ -6563,7 +6563,7 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
         <v>2646.935720430048</v>
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
         <v>53.94298182036445</v>
@@ -6627,46 +6627,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>664.4757752615069</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>450.1873520796696</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>222.8791647482714</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U31" t="n">
-        <v>222.8791647482714</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V31" t="n">
-        <v>222.8791647482714</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W31" t="n">
-        <v>222.8791647482714</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X31" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1349.56916835588</v>
+        <v>433.1733450557858</v>
       </c>
       <c r="C32" t="n">
-        <v>1349.56916835588</v>
+        <v>64.21082811537406</v>
       </c>
       <c r="D32" t="n">
-        <v>991.3034697491298</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E32" t="n">
-        <v>991.3034697491298</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F32" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U32" t="n">
-        <v>2465.942913862886</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V32" t="n">
-        <v>2465.942913862886</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W32" t="n">
-        <v>2113.174258592772</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X32" t="n">
-        <v>1739.708500331692</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y32" t="n">
-        <v>1349.56916835588</v>
+        <v>819.7731851199076</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6800,22 +6800,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>517.6822058285749</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C34" t="n">
-        <v>348.7460229006679</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D34" t="n">
-        <v>348.7460229006679</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E34" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>517.6822058285749</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X34" t="n">
-        <v>517.6822058285749</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y34" t="n">
-        <v>517.6822058285749</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1529.645519427256</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="C35" t="n">
-        <v>1160.683002486844</v>
+        <v>1413.14885430879</v>
       </c>
       <c r="D35" t="n">
-        <v>802.4173038800939</v>
+        <v>1413.14885430879</v>
       </c>
       <c r="E35" t="n">
-        <v>416.6290512818496</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F35" t="n">
-        <v>416.6290512818496</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>416.6290512818496</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6955,10 +6955,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
         <v>2642.120401548716</v>
@@ -6967,22 +6967,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U35" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V35" t="n">
-        <v>1916.245359491378</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W35" t="n">
-        <v>1916.245359491378</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X35" t="n">
-        <v>1916.245359491378</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y35" t="n">
-        <v>1916.245359491378</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>200.8329293182748</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C37" t="n">
-        <v>200.8329293182748</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D37" t="n">
-        <v>200.8329293182748</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7128,19 +7128,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>490.2500993552354</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V37" t="n">
-        <v>490.2500993552354</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W37" t="n">
-        <v>200.8329293182748</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="X37" t="n">
-        <v>200.8329293182748</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="Y37" t="n">
-        <v>200.8329293182748</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1494.154169929768</v>
+        <v>1905.140074719376</v>
       </c>
       <c r="C38" t="n">
-        <v>1125.191652989356</v>
+        <v>1536.177557778964</v>
       </c>
       <c r="D38" t="n">
-        <v>766.9259543826058</v>
+        <v>1177.911859172214</v>
       </c>
       <c r="E38" t="n">
-        <v>381.1377017843616</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F38" t="n">
         <v>381.1377017843616</v>
@@ -7168,19 +7168,19 @@
         <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7192,34 +7192,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2609.668720324026</v>
       </c>
       <c r="T38" t="n">
-        <v>2606.988423525084</v>
+        <v>2609.668720324026</v>
       </c>
       <c r="U38" t="n">
-        <v>2606.988423525084</v>
+        <v>2609.668720324026</v>
       </c>
       <c r="V38" t="n">
-        <v>2606.988423525084</v>
+        <v>2278.605832980455</v>
       </c>
       <c r="W38" t="n">
-        <v>2254.219768254969</v>
+        <v>2278.605832980455</v>
       </c>
       <c r="X38" t="n">
-        <v>1880.75400999389</v>
+        <v>1905.140074719376</v>
       </c>
       <c r="Y38" t="n">
-        <v>1880.75400999389</v>
+        <v>1905.140074719376</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7271,31 +7271,31 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>211.4036268380756</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C40" t="n">
-        <v>211.4036268380756</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D40" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E40" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7362,22 +7362,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>500.8207968750362</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U40" t="n">
-        <v>500.8207968750362</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V40" t="n">
-        <v>500.8207968750362</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W40" t="n">
-        <v>211.4036268380756</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X40" t="n">
-        <v>211.4036268380756</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y40" t="n">
-        <v>211.4036268380756</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1603.407129497228</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="C41" t="n">
-        <v>1603.407129497228</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="D41" t="n">
-        <v>1245.141430890478</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="E41" t="n">
-        <v>1036.358670716696</v>
+        <v>605.4895974695378</v>
       </c>
       <c r="F41" t="n">
-        <v>625.3727659270879</v>
+        <v>605.4895974695378</v>
       </c>
       <c r="G41" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7414,10 +7414,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V41" t="n">
-        <v>1993.54646147304</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W41" t="n">
-        <v>1993.54646147304</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X41" t="n">
-        <v>1993.54646147304</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y41" t="n">
-        <v>1603.407129497228</v>
+        <v>991.2778500677821</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7490,43 +7490,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>369.8327295799424</v>
+        <v>280.0282177315061</v>
       </c>
       <c r="C43" t="n">
-        <v>369.8327295799424</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D43" t="n">
-        <v>369.8327295799424</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E43" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036445</v>
@@ -7593,28 +7593,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>551.4811944101821</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U43" t="n">
-        <v>551.4811944101821</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V43" t="n">
-        <v>551.4811944101821</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W43" t="n">
-        <v>551.4811944101821</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X43" t="n">
-        <v>551.4811944101821</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y43" t="n">
-        <v>551.4811944101821</v>
+        <v>280.0282177315061</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1595.875667274027</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="C44" t="n">
-        <v>1595.875667274027</v>
+        <v>1125.191652989356</v>
       </c>
       <c r="D44" t="n">
-        <v>1595.875667274027</v>
+        <v>766.9259543826058</v>
       </c>
       <c r="E44" t="n">
-        <v>1210.087414675782</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F44" t="n">
-        <v>799.1015098861748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G44" t="n">
         <v>381.1377017843616</v>
@@ -7648,19 +7648,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2626.376624675869</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U44" t="n">
-        <v>2372.61483931396</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V44" t="n">
-        <v>2372.61483931396</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W44" t="n">
-        <v>2372.61483931396</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X44" t="n">
-        <v>2372.61483931396</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y44" t="n">
-        <v>1982.475507338148</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
         <v>221.4284102424006</v>
@@ -7748,22 +7748,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>63.80648027229032</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C46" t="n">
-        <v>63.80648027229032</v>
+        <v>500.820796875036</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>500.820796875036</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>352.9077032926429</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>352.9077032926429</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>183.9079030309753</v>
       </c>
       <c r="H46" t="n">
         <v>53.94298182036445</v>
@@ -7836,22 +7836,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V46" t="n">
-        <v>473.4444960005474</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W46" t="n">
-        <v>473.4444960005474</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X46" t="n">
-        <v>245.45494510253</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y46" t="n">
-        <v>245.45494510253</v>
+        <v>500.820796875036</v>
       </c>
     </row>
   </sheetData>
@@ -8069,13 +8069,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>312.5030352242461</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8300,22 +8300,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M6" t="n">
-        <v>241.9453110519926</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221036</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,22 +8537,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>243.2069195535495</v>
       </c>
       <c r="M9" t="n">
-        <v>241.9453110519922</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221034</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10919,10 +10919,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K42" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,19 +22549,19 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22594,7 +22594,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>307.3148329761767</v>
       </c>
       <c r="Y2" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22673,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>36.26901108812093</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22685,7 +22685,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>142.81920059726</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
@@ -22694,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858214</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>403.6107296845148</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>8.68397329741569</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017733</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783944</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22871,7 +22871,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22880,13 +22880,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22922,16 +22922,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>185.1511084108017</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="7">
@@ -22944,7 +22944,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22992,7 +22992,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858216</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>344.4597780394191</v>
       </c>
       <c r="G8" t="n">
-        <v>330.8829497359739</v>
+        <v>174.2884486374761</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,13 +23065,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>103.6696884698231</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23165,10 +23165,10 @@
         <v>10.68069428326061</v>
       </c>
       <c r="X9" t="n">
-        <v>176.6302781386797</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23229,13 +23229,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23260,25 +23260,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>316.5499167658969</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>52.32791792361655</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -23436,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23475,10 +23475,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>96.2516047562942</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>138.1504824736099</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>161.6093289309646</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>195.493456677225</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>78.44210324364934</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -23718,10 +23718,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>72.6541165664442</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>75.75599214111384</v>
       </c>
       <c r="W17" t="n">
-        <v>84.06035595944962</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>156.1708888417951</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>220.5950396537035</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>81.63609966997433</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>31.86743971662654</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>157.4983735401874</v>
+        <v>250.4303194410046</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>282.4808682022949</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>11.29458122893914</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>17.49548950841407</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
@@ -24420,10 +24420,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>157.4983735401875</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>58.44325709323124</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>41.25137849404592</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24657,13 +24657,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>119.8041518324188</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>164.6923551623816</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,10 +24736,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>83.64851512467956</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>35.43826180874041</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>344.5178737886234</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>44.60464895788999</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25098,7 +25098,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
         <v>212.1455389500189</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>78.18068774251003</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>8.908088316088651</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>116.7948802423481</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25368,13 +25368,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>50.78177823929073</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>81.37511273779117</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>413.784170020795</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>142.2885483965287</v>
       </c>
       <c r="T38" t="n">
-        <v>127.1892595394506</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>138.1504824736096</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25602,19 +25602,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>35.43826180874018</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25633,22 +25633,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>175.2354375002172</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>191.6757932924706</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>89.85640019316683</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25833,13 +25833,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>196.8189855399523</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>323.4318438543944</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>200.8619812535394</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>138.8506095508058</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>156.1708888417951</v>
+        <v>27.50561684329045</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26076,19 +26076,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465368.9729778745</v>
+        <v>465368.9729778746</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465368.9729778747</v>
+        <v>465368.9729778746</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>798427.8661131494</v>
+        <v>798427.8661131493</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131492</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>798427.8661131492</v>
+        <v>798427.8661131493</v>
       </c>
     </row>
     <row r="11">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>798427.866113149</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>798427.8661131493</v>
+        <v>798427.8661131494</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>132928.5380250659</v>
       </c>
       <c r="C2" t="n">
-        <v>132928.538025066</v>
+        <v>132928.5380250659</v>
       </c>
       <c r="D2" t="n">
         <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
-        <v>231322.0880126061</v>
+        <v>231322.088012606</v>
       </c>
       <c r="F2" t="n">
         <v>231322.0880126061</v>
@@ -26334,7 +26334,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="I2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="J2" t="n">
         <v>231322.0880126061</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.1740429961</v>
+        <v>432846.174042996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26472,7 +26472,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376168</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
         <v>48281.26876376166</v>
@@ -26490,7 +26490,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26499,13 +26499,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="M5" t="n">
         <v>49231.47806340947</v>
       </c>
-      <c r="M5" t="n">
-        <v>49231.47806340946</v>
-      </c>
       <c r="N5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25254.86253126476</v>
+        <v>-14258.65297322838</v>
       </c>
       <c r="C6" t="n">
-        <v>55514.56900028299</v>
+        <v>66510.77855831939</v>
       </c>
       <c r="D6" t="n">
-        <v>55514.56900028294</v>
+        <v>66510.77855831939</v>
       </c>
       <c r="E6" t="n">
-        <v>-275052.905409282</v>
+        <v>-269591.3330380447</v>
       </c>
       <c r="F6" t="n">
-        <v>157793.2686337141</v>
+        <v>163254.8410049514</v>
       </c>
       <c r="G6" t="n">
-        <v>157793.2686337141</v>
+        <v>163254.8410049515</v>
       </c>
       <c r="H6" t="n">
-        <v>157793.2686337141</v>
+        <v>163254.8410049515</v>
       </c>
       <c r="I6" t="n">
-        <v>157793.2686337142</v>
+        <v>163254.8410049514</v>
       </c>
       <c r="J6" t="n">
-        <v>94733.32603460801</v>
+        <v>100194.8984058452</v>
       </c>
       <c r="K6" t="n">
-        <v>157793.2686337141</v>
+        <v>163254.8410049514</v>
       </c>
       <c r="L6" t="n">
-        <v>157793.2686337142</v>
+        <v>163254.8410049515</v>
       </c>
       <c r="M6" t="n">
-        <v>49819.90795965608</v>
+        <v>55281.4803308933</v>
       </c>
       <c r="N6" t="n">
-        <v>157793.2686337141</v>
+        <v>163254.8410049514</v>
       </c>
       <c r="O6" t="n">
-        <v>157793.2686337141</v>
+        <v>163254.8410049515</v>
       </c>
       <c r="P6" t="n">
-        <v>157793.2686337141</v>
+        <v>163254.8410049514</v>
       </c>
     </row>
   </sheetData>
@@ -26746,28 +26746,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="H3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="H3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="I3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
         <v>377.7436642170867</v>
@@ -26792,16 +26792,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
         <v>241.014288877659</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="F4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="G4" t="n">
         <v>674.2872727545556</v>
@@ -26810,7 +26810,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26819,13 +26819,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="M4" t="n">
         <v>674.2872727545557</v>
       </c>
-      <c r="M4" t="n">
-        <v>674.2872727545556</v>
-      </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>433.2729838768965</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>433.2729838768966</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>241.0142888776589</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768966</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K11" t="n">
         <v>193.1674799081577</v>
@@ -31773,25 +31773,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N12" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P12" t="n">
         <v>155.1528646479577</v>
@@ -31864,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N13" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32013,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32101,16 +32101,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32186,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32232,19 +32232,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
@@ -32259,13 +32259,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
         <v>79.14039391302239</v>
@@ -32408,16 +32408,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33180,19 +33180,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33207,13 +33207,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,22 +33280,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33356,16 +33356,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33417,19 +33417,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33444,13 +33444,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33517,22 +33517,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33593,16 +33593,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34789,13 +34789,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>169.9067907798016</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35020,22 +35020,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M6" t="n">
-        <v>99.8112771299743</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M9" t="n">
-        <v>99.81127712997385</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="O9" t="n">
         <v>241.014288877659</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35424,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N12" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N13" t="n">
         <v>148.370846145888</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35661,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35740,13 +35740,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
         <v>406.5635087530452</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
         <v>257.8255762031298</v>
@@ -35974,16 +35974,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36211,16 +36211,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36448,13 +36448,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
         <v>130.3926104730631</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36922,13 +36922,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
         <v>130.3926104730631</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37159,13 +37159,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
         <v>297.223041434342</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37639,10 +37639,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38110,13 +38110,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
